--- a/data-raw/fluxes/lf_bay/lf_bay_b_2018-11-02.xlsx
+++ b/data-raw/fluxes/lf_bay/lf_bay_b_2018-11-02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7310A0-4AE2-7F41-BBC9-940EC35284BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D042421-D758-E442-8DE2-D948D84CEAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22540" yWindow="1500" windowWidth="25600" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -196,12 +196,6 @@
     <t>2 Valine</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>DMSO</t>
-  </si>
-  <si>
     <t>run</t>
   </si>
   <si>
@@ -215,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,95 +555,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>-24</v>
       </c>
       <c r="C2">
-        <v>-24</v>
-      </c>
-      <c r="D2">
         <v>40.235399999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
         <v>51.782600000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
         <v>51.336399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>48</v>
-      </c>
-      <c r="D5">
         <v>50.922899999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>72</v>
-      </c>
-      <c r="D6">
         <v>50.518999999999998</v>
       </c>
     </row>
@@ -666,11 +642,11 @@
       <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -688,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -705,7 +681,7 @@
         <v>47951200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -723,7 +699,7 @@
         <v>24388244</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -741,7 +717,7 @@
         <v>12386399</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -759,7 +735,7 @@
         <v>6470842</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -777,7 +753,7 @@
         <v>3398352</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -795,7 +771,7 @@
         <v>1785964</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -813,7 +789,7 @@
         <v>1004410</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -830,7 +806,7 @@
         <v>147894</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -847,7 +823,7 @@
         <v>2006417</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -865,7 +841,7 @@
         <v>2200089</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -883,7 +859,7 @@
         <v>1887671</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -901,7 +877,7 @@
         <v>2995004</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -919,7 +895,7 @@
         <v>2967276</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -937,7 +913,7 @@
         <v>4048756</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -955,7 +931,7 @@
         <v>8198032</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -973,7 +949,7 @@
         <v>5963485</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -991,7 +967,7 @@
         <v>8510607</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +985,7 @@
         <v>20243040</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1003,7 @@
         <v>12330744</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1021,7 @@
         <v>11590898</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1066,7 @@
         <v>3214380</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1084,7 @@
         <v>2609532</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1102,7 @@
         <v>2690408</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1120,7 @@
         <v>1778656</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1138,7 @@
         <v>2916588</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1156,7 @@
         <v>4728993</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1198,7 +1174,7 @@
         <v>2760222</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1192,7 @@
         <v>2904580</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1210,7 @@
         <v>2877337</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1228,7 @@
         <v>3773715</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1246,7 @@
         <v>2863248</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1264,7 @@
         <v>3384904</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1328,11 +1304,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1350,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1337,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1348,7 @@
         <v>0.14940000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1359,7 @@
         <v>0.28449999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1370,7 @@
         <v>0.42109999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1381,7 @@
         <v>0.57189999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1416,7 +1392,7 @@
         <v>0.84060000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1403,7 @@
         <v>1.0888</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1414,7 @@
         <v>1.3495999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1425,7 @@
         <v>0.81340000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1437,7 @@
         <v>0.79910000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1473,7 +1449,7 @@
         <v>0.77490000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1461,7 @@
         <v>0.78059999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1497,7 +1473,7 @@
         <v>0.80369999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1485,7 @@
         <v>0.79239999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1497,7 @@
         <v>0.79179999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1509,7 @@
         <v>0.76919999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1521,7 @@
         <v>0.77680000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1557,7 +1533,7 @@
         <v>0.75660000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1569,7 +1545,7 @@
         <v>0.74360000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1557,7 @@
         <v>0.74590000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1596,7 @@
         <v>0.8206</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1608,7 @@
         <v>0.78059999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1644,7 +1620,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1656,7 +1632,7 @@
         <v>0.80359999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1644,7 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1680,7 +1656,7 @@
         <v>0.79549999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1692,7 +1668,7 @@
         <v>0.79359999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1680,7 @@
         <v>0.75249999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1716,7 +1692,7 @@
         <v>0.77729999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1704,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1716,7 @@
         <v>0.72209999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1752,7 +1728,7 @@
         <v>0.76949999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1770,7 +1746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1767,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +1779,7 @@
         <v>0.76790000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1791,7 @@
         <v>0.75390000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1827,7 +1803,7 @@
         <v>0.81259999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1839,7 +1815,7 @@
         <v>0.80610000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1851,7 +1827,7 @@
         <v>0.80359999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +1839,7 @@
         <v>0.83579999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1875,7 +1851,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1863,7 @@
         <v>0.8468</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1875,7 @@
         <v>0.84319999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +1887,7 @@
         <v>0.82289999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1899,7 @@
         <v>0.85309999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +1908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1941,7 +1917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1963,11 +1939,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1985,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +1972,7 @@
         <v>49011812</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2007,7 +1983,7 @@
         <v>66183316</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2018,7 +1994,7 @@
         <v>82490680</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2029,7 +2005,7 @@
         <v>132493456</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2040,7 +2016,7 @@
         <v>229578208</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2051,7 +2027,7 @@
         <v>440459552</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2038,7 @@
         <v>637101952</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2049,7 @@
         <v>1052188160</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2084,7 +2060,7 @@
         <v>47078004</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2096,7 +2072,7 @@
         <v>48646164</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2084,7 @@
         <v>47218368</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2120,7 +2096,7 @@
         <v>65612916</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2108,7 @@
         <v>65733264</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2120,7 @@
         <v>63580040</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2132,7 @@
         <v>113780800</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2144,7 @@
         <v>96836744</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2180,7 +2156,7 @@
         <v>113204656</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2168,7 @@
         <v>197524288</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2180,7 @@
         <v>196065840</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2216,7 +2192,7 @@
         <v>183665488</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2225,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2234,7 +2210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2231,7 @@
         <v>45230680</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2267,7 +2243,7 @@
         <v>44845044</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2279,7 +2255,7 @@
         <v>44852068</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2291,7 +2267,7 @@
         <v>65908320</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2303,7 +2279,7 @@
         <v>75103504</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2315,7 +2291,7 @@
         <v>67802328</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2327,7 +2303,7 @@
         <v>112328840</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2315,7 @@
         <v>96915608</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2327,7 @@
         <v>107130304</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2339,7 @@
         <v>148167856</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2375,7 +2351,7 @@
         <v>139137056</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2387,7 +2363,7 @@
         <v>128801768</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2414,7 +2390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2426,7 +2402,7 @@
         <v>50037604</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2414,7 @@
         <v>49024272</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2450,7 +2426,7 @@
         <v>48857328</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2462,7 +2438,7 @@
         <v>48015944</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2474,7 +2450,7 @@
         <v>47107768</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2486,7 +2462,7 @@
         <v>46676728</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2474,7 @@
         <v>44679984</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +2486,7 @@
         <v>46351532</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2498,7 @@
         <v>50430332</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2534,7 +2510,7 @@
         <v>51412148</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2546,7 +2522,7 @@
         <v>48619772</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +2534,7 @@
         <v>49482824</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2567,7 +2543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2576,7 +2552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2598,11 +2574,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2620,7 +2596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2634,7 +2610,7 @@
         <v>48521684</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2648,7 +2624,7 @@
         <v>68466096</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2662,7 +2638,7 @@
         <v>87622648</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2652,7 @@
         <v>142070272</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2690,7 +2666,7 @@
         <v>247208928</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2704,7 +2680,7 @@
         <v>365795232</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2718,7 +2694,7 @@
         <v>478187456</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +2708,7 @@
         <v>446634912</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2743,7 +2719,7 @@
         <v>322009856</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2755,7 +2731,7 @@
         <v>325044256</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2743,7 @@
         <v>320483552</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2779,7 +2755,7 @@
         <v>331388064</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2791,7 +2767,7 @@
         <v>341414944</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2803,7 +2779,7 @@
         <v>312767808</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2815,7 +2791,7 @@
         <v>284687872</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2827,7 +2803,7 @@
         <v>262978560</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2839,7 +2815,7 @@
         <v>317267584</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +2827,7 @@
         <v>281630976</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2863,7 +2839,7 @@
         <v>275868896</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2875,7 +2851,7 @@
         <v>292446048</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2884,7 +2860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2893,7 +2869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2902,7 +2878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2890,7 @@
         <v>323949056</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2926,7 +2902,7 @@
         <v>352319104</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2938,7 +2914,7 @@
         <v>291901888</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2950,7 +2926,7 @@
         <v>282406016</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2962,7 +2938,7 @@
         <v>318410368</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2974,7 +2950,7 @@
         <v>320751936</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2986,7 +2962,7 @@
         <v>311206624</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2998,7 +2974,7 @@
         <v>317924768</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3010,7 +2986,7 @@
         <v>328075040</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3022,7 +2998,7 @@
         <v>320085024</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3034,7 +3010,7 @@
         <v>310174720</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3022,7 @@
         <v>321125472</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +3031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3064,7 +3040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3061,7 @@
         <v>302910080</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3094,7 +3070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3103,7 +3079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3091,7 @@
         <v>343214816</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3127,7 +3103,7 @@
         <v>329256704</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3139,7 +3115,7 @@
         <v>336179168</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3127,7 @@
         <v>379946176</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3163,7 +3139,7 @@
         <v>363846432</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3175,7 +3151,7 @@
         <v>353238240</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3187,7 +3163,7 @@
         <v>352208544</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3199,7 +3175,7 @@
         <v>352395904</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +3187,7 @@
         <v>355298112</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3220,7 +3196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3229,7 +3205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3251,11 +3227,11 @@
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3399,7 +3375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3539,7 +3515,7 @@
         <v>33.5411</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3679,7 +3655,7 @@
         <v>88.438199999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3822,7 +3798,7 @@
         <v>353.37439999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3965,7 +3941,7 @@
         <v>912.02679999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4108,7 +4084,7 @@
         <v>2355.1532999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4245,7 +4221,7 @@
         <v>1735.5826</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4385,7 +4361,7 @@
         <v>2148.4243000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4522,7 +4498,7 @@
         <v>1796.2728</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4659,7 +4635,7 @@
         <v>1739.7472</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4799,7 +4775,7 @@
         <v>2195.0203000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4939,7 +4915,7 @@
         <v>2217.3571999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5079,7 +5055,7 @@
         <v>2024.2936999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5219,7 +5195,7 @@
         <v>2203.6356999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5359,7 +5335,7 @@
         <v>2114.9893000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5499,7 +5475,7 @@
         <v>2198.4836</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5639,7 +5615,7 @@
         <v>2061.8625000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5779,7 +5755,7 @@
         <v>2124.4495000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5919,7 +5895,7 @@
         <v>2065.665</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6056,7 +6032,7 @@
         <v>1686.5912000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6193,7 +6169,7 @@
         <v>2110.7952</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6333,7 +6309,7 @@
         <v>2109.0862000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6473,7 +6449,7 @@
         <v>2056.9845999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6610,7 +6586,7 @@
         <v>1954.8412000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6750,7 +6726,7 @@
         <v>2173.1466999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6887,7 +6863,7 @@
         <v>1875.6098999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7024,7 +7000,7 @@
         <v>1938.2396000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -7164,7 +7140,7 @@
         <v>2187.8966999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7307,7 +7283,7 @@
         <v>2152.1986999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7447,7 +7423,7 @@
         <v>2150.9153000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -7584,7 +7560,7 @@
         <v>1416.8562999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7724,7 +7700,7 @@
         <v>2135.3384000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -7864,7 +7840,7 @@
         <v>2169.8633</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -8004,7 +7980,7 @@
         <v>2071.6577000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -8144,7 +8120,7 @@
         <v>2081.4094</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8284,7 +8260,7 @@
         <v>2078.7685999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8424,7 +8400,7 @@
         <v>2106.3618000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8564,7 +8540,7 @@
         <v>2129.1745999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8704,7 +8680,7 @@
         <v>2097.5603000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
